--- a/pipe diameter finder/input files/Mech GRP foundation for KPVS_CUE rev2.xlsx
+++ b/pipe diameter finder/input files/Mech GRP foundation for KPVS_CUE rev2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/57299_grundfos_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2022\Michaels_Code\grundfos-express-tools\pipe diameter finder\input files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D09C89-AB80-448F-BE6D-87061FF724E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4CA5E-EB54-4BF9-81CF-2ED2EEE97F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{41D03960-FA5F-4D93-9E1A-3246448156A4}"/>
+    <workbookView xWindow="28680" yWindow="1035" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{41D03960-FA5F-4D93-9E1A-3246448156A4}"/>
   </bookViews>
   <sheets>
     <sheet name="GES_KPVS+CUE" sheetId="1" r:id="rId1"/>
@@ -1674,38 +1674,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC3E41A-7507-4E62-A2CE-766312F02D23}">
   <dimension ref="A1:AJ1133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G841"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="29.81640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="26.54296875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="22.36328125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5703125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -1770,7 +1770,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>5663.7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>6091.6999999999898</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>6598.6</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15">
+    <row r="5" spans="1:36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15">
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>4880.8</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15">
+    <row r="7" spans="1:36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>5233.8999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15">
+    <row r="8" spans="1:36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>5646.6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15">
+    <row r="9" spans="1:36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>6108.6</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>6722.4</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>7055.6</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>7256.3</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15">
+    <row r="13" spans="1:36">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>7208.6</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>7821.9</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>9109.1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>10125.299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>10905.9</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15">
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>10473.9</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>11367.6</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>11554.5</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>309.5</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>366.2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>405.9</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>441.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>369.8</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15">
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>404.6</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15">
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>435.2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15">
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>476.1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15">
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>521.20000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15">
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>565.70000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15">
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15">
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>597.29999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15">
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>656.6</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15">
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15">
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>802.4</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15">
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>880.7</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15">
+    <row r="37" spans="1:36">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15">
+    <row r="38" spans="1:36">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>964.4</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15">
+    <row r="39" spans="1:36">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15">
+    <row r="40" spans="1:36">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>844.1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15">
+    <row r="41" spans="1:36">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>888.7</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15">
+    <row r="42" spans="1:36">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>910.5</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15">
+    <row r="43" spans="1:36">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>901.5</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="15">
+    <row r="44" spans="1:36">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>696.4</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="15">
+    <row r="45" spans="1:36">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>775.8</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="15">
+    <row r="46" spans="1:36">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>829.69999999999902</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="15">
+    <row r="47" spans="1:36">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>914.4</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="15">
+    <row r="48" spans="1:36">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="15">
+    <row r="49" spans="1:36">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>532.4</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="15">
+    <row r="50" spans="1:36">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>625.19999999999902</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="15">
+    <row r="51" spans="1:36">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>887.5</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="15">
+    <row r="52" spans="1:36">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>976.3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="15">
+    <row r="53" spans="1:36">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1058.8</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="15">
+    <row r="54" spans="1:36">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1105.4000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="15">
+    <row r="55" spans="1:36">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>1130.9000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="15">
+    <row r="56" spans="1:36">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>1197.7</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="15">
+    <row r="57" spans="1:36">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="15">
+    <row r="58" spans="1:36">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1415.3</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="15">
+    <row r="59" spans="1:36">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="15">
+    <row r="60" spans="1:36">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>786.3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="15">
+    <row r="61" spans="1:36">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>848.4</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="15">
+    <row r="62" spans="1:36">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>960.9</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="15">
+    <row r="63" spans="1:36">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="15">
+    <row r="64" spans="1:36">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1137.7</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="15">
+    <row r="65" spans="1:36">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>1251.5</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="15">
+    <row r="66" spans="1:36">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>1236.0999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="15">
+    <row r="67" spans="1:36">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1345.4</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="15">
+    <row r="68" spans="1:36">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1441.8</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="15">
+    <row r="69" spans="1:36">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1529.7</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="15">
+    <row r="70" spans="1:36">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="15">
+    <row r="71" spans="1:36">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1758.4</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="15">
+    <row r="72" spans="1:36">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1869.9</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="15">
+    <row r="73" spans="1:36">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="15">
+    <row r="74" spans="1:36">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>2182.4</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="15">
+    <row r="75" spans="1:36">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>2327.6</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="15">
+    <row r="76" spans="1:36">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="15">
+    <row r="77" spans="1:36">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1495.7</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="15">
+    <row r="78" spans="1:36">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1583.4</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="15">
+    <row r="79" spans="1:36">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>1715.7</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="15">
+    <row r="80" spans="1:36">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1813.1</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="15">
+    <row r="81" spans="1:36">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1884.3</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="15">
+    <row r="82" spans="1:36">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1998.6</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="15">
+    <row r="83" spans="1:36">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="15">
+    <row r="84" spans="1:36">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>1948.3</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="15">
+    <row r="85" spans="1:36">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>2103.8000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="15">
+    <row r="86" spans="1:36">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>2220.5</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="15">
+    <row r="87" spans="1:36">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>2492.6</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="15">
+    <row r="88" spans="1:36">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>2801.3</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="15">
+    <row r="89" spans="1:36">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>2944.6</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="15">
+    <row r="90" spans="1:36">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>3118.5</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="15">
+    <row r="91" spans="1:36">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="15">
+    <row r="92" spans="1:36">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>3257.5</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="15">
+    <row r="93" spans="1:36">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>3513.8</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="15">
+    <row r="94" spans="1:36">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>3946.3</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="15">
+    <row r="95" spans="1:36">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="15">
+    <row r="96" spans="1:36">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>2242.4</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="15">
+    <row r="97" spans="1:36">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>2378.6</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="15">
+    <row r="98" spans="1:36">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>2507.3000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="15">
+    <row r="99" spans="1:36">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>2685.5</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="15">
+    <row r="100" spans="1:36">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>2174.5</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="15">
+    <row r="101" spans="1:36">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>2306.3000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="15">
+    <row r="102" spans="1:36">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>2615.1999999999898</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="15">
+    <row r="103" spans="1:36">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>2874.5</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="15">
+    <row r="104" spans="1:36">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="15">
+    <row r="105" spans="1:36">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>4600.7</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="15">
+    <row r="106" spans="1:36">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>5002.5</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="15">
+    <row r="107" spans="1:36">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>2655.1</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="15">
+    <row r="108" spans="1:36">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>3152.9</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="15">
+    <row r="109" spans="1:36">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>3509.4</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="15">
+    <row r="110" spans="1:36">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>3787.8</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="15">
+    <row r="111" spans="1:36">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>4118.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="15">
+    <row r="112" spans="1:36">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>4360.5</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="15">
+    <row r="113" spans="1:36">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>4649.1000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="15">
+    <row r="114" spans="1:36">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>4862.3999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="15">
+    <row r="115" spans="1:36">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>5297.1</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="15">
+    <row r="116" spans="1:36">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>5667.9</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="15">
+    <row r="117" spans="1:36">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="15">
+    <row r="118" spans="1:36">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>3658.5</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="15">
+    <row r="119" spans="1:36">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>3958.8</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="15">
+    <row r="120" spans="1:36">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>5650.2</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="15">
+    <row r="121" spans="1:36">
       <c r="A121">
         <v>120</v>
       </c>
@@ -50148,21 +50148,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE163D91-E774-4AF7-A6AE-23EFC0A0EEC9}">
   <dimension ref="A1:Q1331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="2"/>
     <col min="8" max="12" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="2"/>
+    <col min="13" max="15" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -50189,14 +50191,8 @@
       <c r="A2" s="5">
         <v>404.6</v>
       </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
       <c r="D2" s="5">
         <v>809.2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6</v>
       </c>
       <c r="P2" s="2">
         <v>20</v>
@@ -50209,14 +50205,8 @@
       <c r="A3" s="5">
         <v>435.2</v>
       </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
       <c r="D3" s="5">
         <v>870.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6</v>
       </c>
       <c r="P3" s="2">
         <v>25</v>
